--- a/data/trans_orig/P04DS2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P04DS2-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FF1AD1F-62AF-4017-B23E-FD56ED499B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21B07F8-7799-4789-B841-580A3BC447D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{87890967-C2BD-46A0-8AFF-932C8710FFCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B9B74D00-F179-4611-BD94-9CDEB3834946}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -84,13 +84,13 @@
     <t>83,55%</t>
   </si>
   <si>
-    <t>33,9%</t>
+    <t>33,81%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>38,15%</t>
+    <t>50,44%</t>
   </si>
   <si>
     <t>Calefacción individual</t>
@@ -108,13 +108,13 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>66,1%</t>
+    <t>66,19%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>61,85%</t>
+    <t>49,56%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -123,7 +123,7 @@
     <t>67,17%</t>
   </si>
   <si>
-    <t>20,46%</t>
+    <t>20,16%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -132,13 +132,13 @@
     <t>83,78%</t>
   </si>
   <si>
-    <t>55,2%</t>
+    <t>54,24%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>79,54%</t>
+    <t>79,84%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -147,7 +147,7 @@
     <t>16,22%</t>
   </si>
   <si>
-    <t>44,8%</t>
+    <t>45,76%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -186,55 +186,55 @@
     <t>68,34%</t>
   </si>
   <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>66,69%</t>
+    <t>65,17%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>31,66%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>33,31%</t>
+    <t>34,83%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2015 (Tasa respuesta: 0,17%)</t>
+    <t>Hogares según el tipo de calefacción que tiene la vivienda /respuesta 2 en 2016 (Tasa respuesta: 0,17%)</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -243,13 +243,13 @@
     <t>59,13%</t>
   </si>
   <si>
-    <t>18,44%</t>
+    <t>18,68%</t>
   </si>
   <si>
     <t>74,85%</t>
   </si>
   <si>
-    <t>37,11%</t>
+    <t>35,95%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -258,13 +258,13 @@
     <t>40,87%</t>
   </si>
   <si>
-    <t>81,56%</t>
+    <t>81,32%</t>
   </si>
   <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>62,89%</t>
+    <t>64,05%</t>
   </si>
   <si>
     <t>—%</t>
@@ -276,13 +276,13 @@
     <t>71,93%</t>
   </si>
   <si>
-    <t>29,11%</t>
+    <t>28,21%</t>
   </si>
   <si>
     <t>82,27%</t>
   </si>
   <si>
-    <t>50,34%</t>
+    <t>53,91%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -291,13 +291,13 @@
     <t>28,07%</t>
   </si>
   <si>
-    <t>70,89%</t>
+    <t>71,79%</t>
   </si>
   <si>
     <t>17,73%</t>
   </si>
   <si>
-    <t>49,66%</t>
+    <t>46,09%</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5754ED1E-8719-4606-989C-BF77399D9024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30CF2629-91F8-4C8E-BB37-B2446177CFD0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1460,7 +1460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982D0CF-AF57-44A1-9B2C-C2D38D1A1B73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAE80E1-08CB-4306-8726-7876E7960817}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
